--- a/style_markers_xlsx.xlsx
+++ b/style_markers_xlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Schliebs\OneDrive\github\R_deVel-01-email-authorship-forensics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6dc06a2a57fe26f8/github/R_deVel-01-email-authorship-forensics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="3461B2774D2D784B590A2791B2AF2D2429187089" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{6B8630D6-99F6-44F3-8BD7-2F92EE6310B2}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="3461B2774D2D784B590A2791B2AF2D2429187089" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{89D2B60A-1646-4AEC-9045-8DAAA40D9402}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>Status</t>
   </si>
@@ -28,9 +28,6 @@
     <t>VarName</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t>Number of blank lines/total number of lines</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Uses a farewell acknowledgement</t>
   </si>
   <si>
-    <t>Questions</t>
-  </si>
-  <si>
     <t>Manually specify with Hello, Dear, etc?</t>
   </si>
   <si>
@@ -142,12 +136,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The requoted text position refers to the reply status of email.</t>
-  </si>
-  <si>
-    <t>haven't seen any in PAN11</t>
-  </si>
-  <si>
     <t xml:space="preserve">~ </t>
   </si>
   <si>
@@ -157,39 +145,21 @@
     <t>~</t>
   </si>
   <si>
-    <t>no definition what function words are</t>
-  </si>
-  <si>
-    <t>take external list?</t>
-  </si>
-  <si>
     <t>3 or less letters</t>
   </si>
   <si>
     <t>I use: period, comma, question mark, exclamation point, apostrophe, quotation mark and hyphen.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>I have no idea how to differentiate between tab space and white space in a txt file</t>
   </si>
   <si>
-    <t>paper has: all-purpose function words (\a", \all", \also", . . . ,\to", \with"). Total number 122</t>
-  </si>
-  <si>
     <t>how to differentiate between white space and space in PAN?</t>
   </si>
   <si>
     <t>(+)</t>
   </si>
   <si>
-    <t>what does "in words" mean?</t>
-  </si>
-  <si>
-    <t>see above</t>
-  </si>
-  <si>
     <t>blank_line_ratio</t>
   </si>
   <si>
@@ -205,9 +175,6 @@
     <t>are spaces characters?</t>
   </si>
   <si>
-    <t>"" 122 global most frequent?</t>
-  </si>
-  <si>
     <t>ratio_function_words</t>
   </si>
   <si>
@@ -229,9 +196,6 @@
     <t>ratio_char_in_words</t>
   </si>
   <si>
-    <t>what does in words mean?</t>
-  </si>
-  <si>
     <t>ratio_digit</t>
   </si>
   <si>
@@ -242,6 +206,24 @@
   </si>
   <si>
     <t>l_1 : l_30</t>
+  </si>
+  <si>
+    <t>how?</t>
+  </si>
+  <si>
+    <t>Remarks|Questions</t>
+  </si>
+  <si>
+    <t>no definition what function words are | take external list?</t>
+  </si>
+  <si>
+    <t>"" 122 global most frequent? | paper has: all-purpose function words (\a", \all", \also", . . . ,\to", \with"). Total number 122</t>
+  </si>
+  <si>
+    <t>what does "in words" mean? | are spaces characters?</t>
+  </si>
+  <si>
+    <t>not possible in PAN11 | The requoted text position refers to the reply status of email.</t>
   </si>
 </sst>
 </file>
@@ -749,13 +731,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1113,28 +1101,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="62.453125" customWidth="1"/>
     <col min="3" max="3" width="26.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
     <col min="5" max="5" width="23.453125" customWidth="1"/>
-    <col min="6" max="6" width="58.08984375" customWidth="1"/>
-    <col min="7" max="7" width="107.54296875" customWidth="1"/>
+    <col min="6" max="6" width="103.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1143,540 +1130,494 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F7" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/style_markers_xlsx.xlsx
+++ b/style_markers_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6dc06a2a57fe26f8/github/R_deVel-01-email-authorship-forensics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="3461B2774D2D784B590A2791B2AF2D2429187089" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{89D2B60A-1646-4AEC-9045-8DAAA40D9402}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="3461B2774D2D784B590A2791B2AF2D2429187089" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{6FC2FA84-D504-4D5C-9C33-7A0D8A4F703B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="style_markers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t>Status</t>
   </si>
@@ -224,6 +224,27 @@
   </si>
   <si>
     <t>not possible in PAN11 | The requoted text position refers to the reply status of email.</t>
+  </si>
+  <si>
+    <t>greeting_ack</t>
+  </si>
+  <si>
+    <t>farewell_ack</t>
+  </si>
+  <si>
+    <t>ratio_white_space,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ratio_space,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ratio_space_whitespace,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ratio_tab,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ratio_tab_white,</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1395,7 +1416,9 @@
       <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>44</v>
       </c>
@@ -1413,7 +1436,9 @@
       <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1429,7 +1454,9 @@
       <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1447,7 +1474,9 @@
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1463,7 +1492,9 @@
       <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1508,17 +1539,19 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1526,17 +1559,19 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/style_markers_xlsx.xlsx
+++ b/style_markers_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6dc06a2a57fe26f8/github/R_deVel-01-email-authorship-forensics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="3461B2774D2D784B590A2791B2AF2D2429187089" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{6FC2FA84-D504-4D5C-9C33-7A0D8A4F703B}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="3461B2774D2D784B590A2791B2AF2D2429187089" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{CEEEC4A3-273D-40D5-9054-A39A4C93ED73}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="style_markers" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1235,10 +1235,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1255,10 +1255,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1407,10 +1407,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1427,10 +1427,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1445,10 +1445,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1465,10 +1465,10 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1483,10 +1483,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1579,10 +1579,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
